--- a/date/qstock_china_cpi_1980_2025.xlsx
+++ b/date/qstock_china_cpi_1980_2025.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N207"/>
+  <dimension ref="A1:N208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9573,6 +9573,50 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>45717</v>
+      </c>
+      <c r="B208" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="C208" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="D208" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="E208" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="F208" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="G208" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="H208" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="I208" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J208" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="K208" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="L208" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="M208" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="N208" t="n">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
